--- a/knnwarna/Book1.xlsx
+++ b/knnwarna/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\knnwarna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{906DDD0C-5187-434E-B50C-038558FD0BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D399DD-D0F2-4BC9-87EA-871B969387F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{93E9C8C1-E298-4706-8997-B24A1297556E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{93E9C8C1-E298-4706-8997-B24A1297556E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$2:$J$9</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>Merah</t>
   </si>
@@ -70,6 +71,9 @@
   </si>
   <si>
     <t>Kelas Baru</t>
+  </si>
+  <si>
+    <t>Tabel Data Uji</t>
   </si>
 </sst>
 </file>
@@ -132,18 +136,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,52 +463,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6490C2F-43DA-4858-B8CC-F7713E1F6F41}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="22.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -513,10 +513,10 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>40</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -525,14 +525,14 @@
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>5</v>
       </c>
       <c r="I3" s="1" t="str">
         <f>IF(J3&lt;=SMALL($J$3:$J$9,$G$3),D3,"")</f>
         <v>Merah</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f>SQRT((B3-$G$4)^2+(C3-$G$5)^2)</f>
         <v>25</v>
       </c>
@@ -541,10 +541,10 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>50</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -553,14 +553,14 @@
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>20</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" ref="I4:I9" si="0">IF(J4&lt;=SMALL($J$3:$J$9,$G$3),D4,"")</f>
         <v>Biru</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <f t="shared" ref="J4:J9" si="1">SQRT((B4-$G$4)^2+(C4-$G$5)^2)</f>
         <v>33.541019662496844</v>
       </c>
@@ -569,10 +569,10 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>60</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -581,14 +581,14 @@
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>35</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f t="shared" si="1"/>
         <v>68.007352543677214</v>
       </c>
@@ -597,10 +597,10 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>10</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -610,7 +610,7 @@
         <f>A13</f>
         <v>Merah</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <f>COUNTIFS($I$3:$I$9,A13)</f>
         <v>3</v>
       </c>
@@ -618,7 +618,7 @@
         <f t="shared" si="0"/>
         <v>Merah</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f t="shared" si="1"/>
         <v>14.142135623730951</v>
       </c>
@@ -627,20 +627,20 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>70</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" t="str">
         <f>A14</f>
         <v>Biru</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <f>COUNTIFS($I$3:$I$9,A14)</f>
         <v>2</v>
       </c>
@@ -648,7 +648,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <f t="shared" si="1"/>
         <v>61.032778078668514</v>
       </c>
@@ -657,10 +657,10 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>60</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -669,7 +669,7 @@
       <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" t="str">
         <f>IF(G6&gt;G7,F6,F7)</f>
         <v>Merah</v>
       </c>
@@ -677,7 +677,7 @@
         <f t="shared" si="0"/>
         <v>Merah</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <f t="shared" si="1"/>
         <v>47.169905660283021</v>
       </c>
@@ -686,10 +686,10 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>25</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -699,23 +699,23 @@
         <f t="shared" si="0"/>
         <v>Biru</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <f t="shared" si="1"/>
         <v>45.276925690687087</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -728,4 +728,160 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4C73D3-D9EC-4EE8-BBDF-BF35E923DDD1}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/knnwarna/Book1.xlsx
+++ b/knnwarna/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\knnwarna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D399DD-D0F2-4BC9-87EA-871B969387F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0745FF33-C5D3-419D-AA65-F6C783D17EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{93E9C8C1-E298-4706-8997-B24A1297556E}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>Merah</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Tabel Data Uji</t>
+  </si>
+  <si>
+    <t>Tabel Kelas</t>
+  </si>
+  <si>
+    <t>Tabel Jarak Euclidean</t>
   </si>
 </sst>
 </file>
@@ -124,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,11 +138,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -147,6 +168,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,7 +487,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,156 +755,246 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4C73D3-D9EC-4EE8-BBDF-BF35E923DDD1}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="K2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
         <v>40</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>5</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>20</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="I3" s="6" t="str">
+        <f>IF(COUNTIF($L$3:$L$9,$F$8)&gt;COUNTIF($L$3:$L$9,$F$9),F8,F9)</f>
+        <v>Merah</v>
+      </c>
+      <c r="K3" s="6">
+        <f>SQRT(POWER($G$3-B3,2)+POWER($H$3-C3,2))</f>
+        <v>25</v>
+      </c>
+      <c r="L3" s="6" t="str">
+        <f>IF(K3&lt;=SMALL($K$3:$K$9,$F$3),D3,"")</f>
+        <v>Merah</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>50</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>50</v>
       </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="D4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" ref="K4:K9" si="0">SQRT(POWER($G$3-B4,2)+POWER($H$3-C4,2))</f>
+        <v>33.541019662496844</v>
+      </c>
+      <c r="L4" s="6" t="str">
+        <f t="shared" ref="L4:L9" si="1">IF(K4&lt;=SMALL($K$3:$K$9,$F$3),D4,"")</f>
+        <v>Biru</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>60</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>90</v>
       </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="D5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="0"/>
+        <v>68.007352543677214</v>
+      </c>
+      <c r="L5" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="0"/>
+        <v>14.142135623730951</v>
+      </c>
+      <c r="L6" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Merah</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>70</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>70</v>
       </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="D7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="0"/>
+        <v>61.032778078668514</v>
+      </c>
+      <c r="L7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>60</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="F8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="0"/>
+        <v>47.169905660283021</v>
+      </c>
+      <c r="L8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Merah</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>25</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>80</v>
       </c>
-      <c r="D9" t="s">
-        <v>1</v>
+      <c r="D9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="0"/>
+        <v>45.276925690687087</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Biru</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D9" xr:uid="{15FD2284-546C-4FEC-8E1A-FE5C6BFBDCDC}">
+      <formula1>$F$8:$F$9</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>